--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Angola/Pandémie_de_Covid-19_en_Angola.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Angola/Pandémie_de_Covid-19_en_Angola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Angola</t>
+          <t>Pandémie_de_Covid-19_en_Angola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Angola démarre officiellement le 21 mars 2020. À la date du 14 janvier 2024, le bilan est de 1 937 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Angola</t>
+          <t>Pandémie_de_Covid-19_en_Angola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 19 mars 2020, un audio WhatsApp sur un cas présumé est devenu viral, ce qui a ensuite été retiré.
@@ -520,40 +534,40 @@
 Le 21 mars, le ministère de la Santé angolais a confirmé les deux premiers cas positifs de Covid-19. Les deux cas étaient revenus du Portugal. Le premier cas était un employé de Sonangol qui a pris l'avion de Lisbonne à Luanda. Le deuxième cas était arrivé de Porto et était également en observation à Luanda.  
 Toutes les écoles du pays ont fermé le 24 mars.
 [réf. nécessaire]
-Le 29 mars, le ministre de la Santé Sílvia Lutucuta annonce les deux premiers décès dans le pays dus à Covid-19. Une première personne âgée de 59 ans et une autre de 37 ans, toutes deux rentrées peu avant du Portugal[4].
-En mars il y avait sept cas confirmés dont deux décès[5].
-Avril : 20 nouveaux cas, portant le nombre de cas à 27 dont deux décès[6].
-Mai : 59 nouveaux cas et deux décès, portant le nombre de cas à 86 dont quatre décès[7].
-Juin : 198 nouveaux cas et neuf décès, portant le nombre de cas à 284 dont 13 décès[8].
-Juillet : 864 nouveaux cas et 39 décès, portant le nombre de cas à 1 148 dont 52 décès[9].
-Août : 1 476 nouveaux cas et 55 décès, portant le nombre de cas à 2 624 dont 107 décès[10].
-Septembre : 2 281 nouveaux cas et 72 décès, portant le nombre de cas à 4 905 dont 179 décès[11].
-Octobre : 5 900 nouveaux cas et 105 décès, portant le nombre de cas à 10 805 dont 284 décès[12].
-Novembre : 4 334 nouveaux cas et 64 décès, portant le nombre de cas à 15 139 dont 348 décès[13].
-Décembre : 2 294 nouveaux cas et 57 décès, portant le nombre de cas à 17 433 dont 405 décès[14].
-Janvier 2021 : 2 363 nouveaux cas et 61 décès, portant le nombre de cas à 19 796 dont 466 décès[15].
-Février 2021 : 1 011 nouveaux cas et 42 décès, portant le nombre de cas à 20 807 dont 508 décès[16].
-Mars 2021 : 1 504 nouveaux cas et 29 décès, portant le nombre de cas à 22 311 dont 537 décès[17].
-Avril 2021 : 4 120 nouveaux cas et 57 décès, portant le nombre de cas à 26 431 dont 594 décès[18].
-Mai 2021 : 8 120 nouveaux cas et 172 décès, portant le nombre de cas à 34 551 dont 766 décès[19].
-Juin 2021 : 4 298 nouveaux cas et 134 décès, portant le nombre de cas à 38 849 dont 900 décès[20].
-Juillet 2021 : 3 797 nouveaux cas et 108 décès, portant le nombre de cas à 42 646 dont 1 008 décès[21].
-Août 2021 : 4 898 nouveaux cas et 209 décès, portant le nombre de cas à 47 544 dont 1 217 décès[22].
-Septembre 2021 : 9 703 nouveaux cas et 331 décès, portant le nombre de cas à 57 247 dont 1 548 décès[23].
-Octobre 2021 : 7 186 nouveaux cas et 162 décès, portant le nombre de cas à 64 433 dont 1 710 décès[24].
-Novembre 2021 : 735 nouveaux cas et 23 décès, portant le nombre de cas à 65 168 dont 1 733 décès[25].
-Décembre 2021 : 16 425 nouveaux cas et 37 décès, portant le nombre de cas à 81 593 dont 1 770 décès[26].
-Janvier 2022 : 16 523 nouveaux cas et 125 décès, portant le nombre de cas à 98 116 dont 1 895 décès[27].
-Février 2022 : 625 nouveaux cas et cinq décès, portant le nombre de cas à 98 741 dont 1 900 décès[28].
-Mars 2022 : 407 nouveaux cas, portant le nombre de cas à 99 148 dont 1 900 décès[29].
-Avril 2022 : 46 nouveaux cas, portant le nombre de cas à 99 194 dont 1 900 décès[30].
-Mai 2022 : 606 nouveaux cas, portant le nombre de cas à 99 800 dont 1 900 décès[31].
+Le 29 mars, le ministre de la Santé Sílvia Lutucuta annonce les deux premiers décès dans le pays dus à Covid-19. Une première personne âgée de 59 ans et une autre de 37 ans, toutes deux rentrées peu avant du Portugal.
+En mars il y avait sept cas confirmés dont deux décès.
+Avril : 20 nouveaux cas, portant le nombre de cas à 27 dont deux décès.
+Mai : 59 nouveaux cas et deux décès, portant le nombre de cas à 86 dont quatre décès.
+Juin : 198 nouveaux cas et neuf décès, portant le nombre de cas à 284 dont 13 décès.
+Juillet : 864 nouveaux cas et 39 décès, portant le nombre de cas à 1 148 dont 52 décès.
+Août : 1 476 nouveaux cas et 55 décès, portant le nombre de cas à 2 624 dont 107 décès.
+Septembre : 2 281 nouveaux cas et 72 décès, portant le nombre de cas à 4 905 dont 179 décès.
+Octobre : 5 900 nouveaux cas et 105 décès, portant le nombre de cas à 10 805 dont 284 décès.
+Novembre : 4 334 nouveaux cas et 64 décès, portant le nombre de cas à 15 139 dont 348 décès.
+Décembre : 2 294 nouveaux cas et 57 décès, portant le nombre de cas à 17 433 dont 405 décès.
+Janvier 2021 : 2 363 nouveaux cas et 61 décès, portant le nombre de cas à 19 796 dont 466 décès.
+Février 2021 : 1 011 nouveaux cas et 42 décès, portant le nombre de cas à 20 807 dont 508 décès.
+Mars 2021 : 1 504 nouveaux cas et 29 décès, portant le nombre de cas à 22 311 dont 537 décès.
+Avril 2021 : 4 120 nouveaux cas et 57 décès, portant le nombre de cas à 26 431 dont 594 décès.
+Mai 2021 : 8 120 nouveaux cas et 172 décès, portant le nombre de cas à 34 551 dont 766 décès.
+Juin 2021 : 4 298 nouveaux cas et 134 décès, portant le nombre de cas à 38 849 dont 900 décès.
+Juillet 2021 : 3 797 nouveaux cas et 108 décès, portant le nombre de cas à 42 646 dont 1 008 décès.
+Août 2021 : 4 898 nouveaux cas et 209 décès, portant le nombre de cas à 47 544 dont 1 217 décès.
+Septembre 2021 : 9 703 nouveaux cas et 331 décès, portant le nombre de cas à 57 247 dont 1 548 décès.
+Octobre 2021 : 7 186 nouveaux cas et 162 décès, portant le nombre de cas à 64 433 dont 1 710 décès.
+Novembre 2021 : 735 nouveaux cas et 23 décès, portant le nombre de cas à 65 168 dont 1 733 décès.
+Décembre 2021 : 16 425 nouveaux cas et 37 décès, portant le nombre de cas à 81 593 dont 1 770 décès.
+Janvier 2022 : 16 523 nouveaux cas et 125 décès, portant le nombre de cas à 98 116 dont 1 895 décès.
+Février 2022 : 625 nouveaux cas et cinq décès, portant le nombre de cas à 98 741 dont 1 900 décès.
+Mars 2022 : 407 nouveaux cas, portant le nombre de cas à 99 148 dont 1 900 décès.
+Avril 2022 : 46 nouveaux cas, portant le nombre de cas à 99 194 dont 1 900 décès.
+Mai 2022 : 606 nouveaux cas, portant le nombre de cas à 99 800 dont 1 900 décès.
 Juin 2022 : 1 520 nouveaux cas, portant le nombre de cas à 101 320 dont 1 900 décès.
-Juillet 2022 : 1 112 nouveaux cas et 16 décès, portant le nombre de cas à 102 432 dont 1 916 décès[32].
-Août 2022 : 204 nouveaux cas et un décès, portant le nombre de cas à 102 636 dont 1 917 décès[33].
-Septembre 2022 : 495 nouveaux cas, portant le nombre de cas à 103 131 dont 1 917 décès[34].
-Novembre 2022 : 1 323 nouveaux cas et cinq décès, portant le nombre de cas à 104 454 dont 1 922 décès[35].
-Décembre 2022 : 641 nouveaux cas et huit décès, portant le nombre de cas à 105 095 dont 1 930 décès[36].
+Juillet 2022 : 1 112 nouveaux cas et 16 décès, portant le nombre de cas à 102 432 dont 1 916 décès.
+Août 2022 : 204 nouveaux cas et un décès, portant le nombre de cas à 102 636 dont 1 917 décès.
+Septembre 2022 : 495 nouveaux cas, portant le nombre de cas à 103 131 dont 1 917 décès.
+Novembre 2022 : 1 323 nouveaux cas et cinq décès, portant le nombre de cas à 104 454 dont 1 922 décès.
+Décembre 2022 : 641 nouveaux cas et huit décès, portant le nombre de cas à 105 095 dont 1 930 décès.
 </t>
         </is>
       </c>
@@ -564,7 +578,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Angola</t>
+          <t>Pandémie_de_Covid-19_en_Angola</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -582,9 +596,11 @@
           <t>Soutien international</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des médecins cubains sont déployés en Angola pour combattre la pandémie[37].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des médecins cubains sont déployés en Angola pour combattre la pandémie.
 </t>
         </is>
       </c>
@@ -595,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Angola</t>
+          <t>Pandémie_de_Covid-19_en_Angola</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,6 +630,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Angola</t>
+          <t>Pandémie_de_Covid-19_en_Angola</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +657,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
